--- a/log/ML/06/lot_info.xlsx
+++ b/log/ML/06/lot_info.xlsx
@@ -7,17 +7,17 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="general" sheetId="1" r:id="rId1"/>
-    <sheet name="options" sheetId="2" r:id="rId2"/>
-    <sheet name="nsos" sheetId="3" r:id="rId3"/>
-    <sheet name="warranty" sheetId="4" r:id="rId4"/>
+    <sheet name="Lot" sheetId="1" r:id="rId1"/>
+    <sheet name="Options" sheetId="2" r:id="rId2"/>
+    <sheet name="Nsos" sheetId="3" r:id="rId3"/>
+    <sheet name="Warranty" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>Lot Id</t>
   </si>
@@ -26,15 +26,6 @@
   </si>
   <si>
     <t>Model</t>
-  </si>
-  <si>
-    <t>06</t>
-  </si>
-  <si>
-    <t>11 Popjoy Lane</t>
-  </si>
-  <si>
-    <t>Birkdale</t>
   </si>
   <si>
     <t>Id</t>
@@ -420,7 +411,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -435,17 +426,6 @@
       </c>
       <c r="C1" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -463,22 +443,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>8</v>
-      </c>
-      <c r="D1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -496,22 +476,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>14</v>
-      </c>
-      <c r="D1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -529,25 +509,25 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
         <v>18</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>19</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>20</v>
-      </c>
-      <c r="E1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
